--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.199900000000001</v>
+        <v>-7.133099999999998</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.81519999999999</v>
+        <v>-21.8939</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5712</v>
+        <v>-21.53790000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.948499999999997</v>
+        <v>-8.044599999999994</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.40590000000002</v>
+        <v>-22.44110000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.497899999999996</v>
+        <v>-7.824199999999998</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.200399999999999</v>
+        <v>-7.235400000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.316400000000007</v>
+        <v>-7.360700000000005</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.522599999999999</v>
+        <v>-8.439899999999993</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.44799999999999</v>
+        <v>-19.5807</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.953999999999995</v>
+        <v>-8.119899999999994</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.20780000000001</v>
+        <v>-22.22980000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.57419999999999</v>
+        <v>-21.5371</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.956199999999996</v>
+        <v>-6.941199999999998</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.179599999999999</v>
+        <v>-7.247399999999998</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.07099999999998</v>
+        <v>-20.92049999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.70179999999998</v>
+        <v>-20.57539999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.692499999999999</v>
+        <v>-7.892399999999993</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.039799999999993</v>
+        <v>-7.085599999999994</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.484700000000006</v>
+        <v>-7.528500000000004</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.486500000000001</v>
+        <v>-8.3299</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.765899999999999</v>
+        <v>-7.815100000000002</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.703599999999998</v>
+        <v>-7.8497</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
